--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22140" windowHeight="11475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22140" windowHeight="11475" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="Courses" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>hc</t>
   </si>
@@ -193,6 +194,21 @@
   </si>
   <si>
     <t>change_column :scores, :greens_18, :boolean</t>
+  </si>
+  <si>
+    <t>:si_</t>
+  </si>
+  <si>
+    <t>:par_</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -241,12 +257,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -254,6 +267,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5:U22"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +650,7 @@
         <f t="shared" ref="E6:E22" si="3">CONCATENATE($H$3,$A6)</f>
         <v>:putts_2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I6" t="str">
@@ -1207,11 +1224,11 @@
         <f t="shared" si="5"/>
         <v>change_column :scores, :greens_18, :boolean</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5" t="s">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="U22" t="s">
@@ -1219,39 +1236,39 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
+      <c r="A25" s="5" t="str">
         <f>CONCATENATE(F5," ",B3,":date"," ",B4,":integer"," ",B5,":integer"," ",C5,":integer"," ",D5,":integer"," ",E5,":integer"," ",B6,":integer"," ",C6,":integer"," ",D6,":integer"," ",E6,":integer"," ",B7,":integer"," ",C7,":integer"," ",D7,":integer"," ",E7,":integer"," ",B8,":integer"," ",C8,":integer"," ",D8,":integer"," ",E8,":integer"," ",B9,":integer"," ",C9,":integer"," ",D9,":integer"," ",E9,":integer"," ",B10,":integer"," ",C10,":integer"," ",D10,":integer"," ",E10,":integer"," ",B11,":integer"," ",C11,":integer"," ",D11,":integer"," ",E11,":integer"," ",B12,":integer"," ",C12,":integer"," ",D12,":integer"," ",E12,":integer"," ",B13,":integer"," ",C13,":integer"," ",D13,":integer"," ",E13,":integer"," ",B14,":integer"," ",C14,":integer"," ",D14,":integer"," ",E14,":integer"," ",B15,":integer"," ",C15,":integer"," ",D15,":integer"," ",E15,":integer"," ",B16,":integer"," ",C16,":integer"," ",D16,":integer"," ",E16,":integer"," ",B17,":integer"," ",C17,":integer"," ",D17,":integer"," ",E17,":integer"," ",B18,":integer"," ",C18,":integer"," ",D18,":integer"," ",E18,":integer"," ",B19,":integer"," ",C19,":integer"," ",D19,":integer"," ",E19,":integer"," ",B20,":integer"," ",C20,":integer"," ",D20,":integer"," ",E20,":integer"," ",B21,":integer"," ",C21,":integer"," ",D21,":integer"," ",E21,":integer"," ",B22,":integer"," ",C22,":integer"," ",D22,":integer"," ",E22,":integer")</f>
         <v>rails generate model Score score_date:date hc:integer :score_1:integer :fairways_1:integer :greens_1:integer :putts_1:integer :score_2:integer :fairways_2:integer :greens_2:integer :putts_2:integer :score_3:integer :fairways_3:integer :greens_3:integer :putts_3:integer :score_4:integer :fairways_4:integer :greens_4:integer :putts_4:integer :score_5:integer :fairways_5:integer :greens_5:integer :putts_5:integer :score_6:integer :fairways_6:integer :greens_6:integer :putts_6:integer :score_7:integer :fairways_7:integer :greens_7:integer :putts_7:integer :score_8:integer :fairways_8:integer :greens_8:integer :putts_8:integer :score_9:integer :fairways_9:integer :greens_9:integer :putts_9:integer :score_10:integer :fairways_10:integer :greens_10:integer :putts_10:integer :score_11:integer :fairways_11:integer :greens_11:integer :putts_11:integer :score_12:integer :fairways_12:integer :greens_12:integer :putts_12:integer :score_13:integer :fairways_13:integer :greens_13:integer :putts_13:integer :score_14:integer :fairways_14:integer :greens_14:integer :putts_14:integer :score_15:integer :fairways_15:integer :greens_15:integer :putts_15:integer :score_16:integer :fairways_16:integer :greens_16:integer :putts_16:integer :score_17:integer :fairways_17:integer :greens_17:integer :putts_17:integer :score_18:integer :fairways_18:integer :greens_18:integer :putts_18:integer</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -1262,12 +1279,12 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1278,12 +1295,12 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -1294,12 +1311,12 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:21" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1310,12 +1327,12 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -1359,4 +1376,1136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE($E$3,A5)</f>
+        <v>:si_1</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE($F$3,$A5)</f>
+        <v>:par_1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ref="B6:B22" si="0">CONCATENATE($E$3,A6)</f>
+        <v>:si_2</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C22" si="1">CONCATENATE($F$3,$A6)</f>
+        <v>:par_2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_3</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_4</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_5</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_6</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_7</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_8</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_9</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_10</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_11</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_12</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_13</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_14</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_15</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_16</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_17</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>:si_18</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>:par_18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>